--- a/Inputs/Deskcount/2024/June Deskcount.xlsx
+++ b/Inputs/Deskcount/2024/June Deskcount.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://greystar365.sharepoint.com/sites/CorporateOfficeStrategy/Shared Documents/General/Occupancy Data/Dashboard/Inputs/Deskcount/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="11_E35161E09DDAB7BB5CD1F6181239E262265FDBF1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA9EB316-168C-4DAA-A949-88E911674BAA}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="11_E35161E09DDAB7BB5CD1F6181239E262265FDBF1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B9496BF-5C9E-4488-B8F7-76D69D5B0CF2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -823,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1717,7 +1717,7 @@
         <v>91</v>
       </c>
       <c r="C45" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D45" s="7">
         <v>3509</v>
@@ -1786,7 +1786,7 @@
         <v>45444</v>
       </c>
       <c r="F48" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -1806,7 +1806,7 @@
         <v>45444</v>
       </c>
       <c r="F49" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -2187,7 +2187,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D2CC2C9-ADB8-4E60-9F57-A8A067CE9424}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D2CC2C9-ADB8-4E60-9F57-A8A067CE9424}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="334de605-b0fc-4c39-b9f0-ad19cf79a3ca"/>
+    <ds:schemaRef ds:uri="247b3ed0-617a-4d1d-b8bd-a66944492619"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
